--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_validation_tool/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFF0A84-B566-304D-8C43-E4292DF184C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34AAA16-CB32-E540-BACB-ED9078810CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,90 +20,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
-  <si>
-    <t>Sno</t>
-  </si>
-  <si>
-    <t>Empno</t>
-  </si>
-  <si>
-    <t>Table_Name</t>
-  </si>
-  <si>
-    <t>Validation_Type</t>
-  </si>
-  <si>
-    <t>Select * from emp</t>
-  </si>
-  <si>
-    <t>Source_Query</t>
-  </si>
-  <si>
-    <t>select * from emp</t>
-  </si>
-  <si>
-    <t>emp</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="33">
+  <si>
+    <t>count_validation</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>Null_value_check</t>
+  </si>
+  <si>
+    <t>Uniquess_check</t>
+  </si>
+  <si>
+    <t>records_present_only_in_source</t>
+  </si>
+  <si>
+    <t>records_present_only_in_target</t>
+  </si>
+  <si>
+    <t>data_compare</t>
+  </si>
+  <si>
+    <t>/Users/harish/PycharmProjects/Data_validation_tool/Source_Files/Contact_info.csv</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>exclude_columns</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>target_transformation_query_path</t>
+  </si>
+  <si>
+    <t>validation_Type</t>
+  </si>
+  <si>
+    <t>source_transformation_query_path</t>
+  </si>
+  <si>
+    <t>key_col_list</t>
+  </si>
+  <si>
+    <t>null_col_list</t>
+  </si>
+  <si>
+    <t>unique_col_list</t>
+  </si>
+  <si>
+    <t>execution_ind</t>
+  </si>
+  <si>
+    <t>test_case_id</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>contact_info</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>source_type</t>
+  </si>
+  <si>
+    <t>target_type</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>source_db_name</t>
+  </si>
+  <si>
+    <t>target_db_name</t>
   </si>
   <si>
     <t>oracle_db</t>
   </si>
   <si>
-    <t>Source_file_info</t>
-  </si>
-  <si>
-    <t>Source_Database_info</t>
-  </si>
-  <si>
-    <t>Null_col_list</t>
-  </si>
-  <si>
-    <t>Key_col_list</t>
-  </si>
-  <si>
-    <t>Unique_col_list</t>
-  </si>
-  <si>
-    <t>['Empno']</t>
-  </si>
-  <si>
-    <t>Target_Database_info</t>
-  </si>
-  <si>
-    <t>Target_file_info</t>
-  </si>
-  <si>
-    <t>emp_file</t>
-  </si>
-  <si>
-    <t>Target_Query</t>
-  </si>
-  <si>
-    <t>count_validation</t>
-  </si>
-  <si>
-    <t>duplicate</t>
-  </si>
-  <si>
-    <t>Null_value_check</t>
-  </si>
-  <si>
-    <t>Uniquess_check</t>
-  </si>
-  <si>
-    <t>records_present_only_in_source</t>
-  </si>
-  <si>
-    <t>records_present_only_in_target</t>
-  </si>
-  <si>
-    <t>data_compare</t>
-  </si>
-  <si>
-    <t>['bonus']</t>
-  </si>
-  <si>
-    <t>Key_columns</t>
+    <t>Identifier,Surname</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>/Users/harish/PycharmProjects/Data_validation_tool/Transformations_queries/contact_info.sql</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -154,7 +169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -175,6 +190,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,281 +472,608 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="23.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="58.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.83203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="49.1640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="2"/>
+    <col min="11" max="11" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J2" s="4"/>
       <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J3" s="4"/>
       <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="I4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J4" s="4"/>
       <c r="K4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J6" s="4"/>
       <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>14</v>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_validation_tool/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34AAA16-CB32-E540-BACB-ED9078810CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C39588-7BC5-1C44-9F02-12B6EFBD765C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="33">
   <si>
     <t>count_validation</t>
   </si>
@@ -43,9 +43,6 @@
     <t>data_compare</t>
   </si>
   <si>
-    <t>/Users/harish/PycharmProjects/Data_validation_tool/Source_Files/Contact_info.csv</t>
-  </si>
-  <si>
     <t>csv</t>
   </si>
   <si>
@@ -115,10 +112,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>/Users/harish/PycharmProjects/Data_validation_tool/Transformations_queries/contact_info.sql</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>schema_path</t>
+  </si>
+  <si>
+    <t>contact_info.sql</t>
+  </si>
+  <si>
+    <t>Contact_info.csv</t>
   </si>
 </sst>
 </file>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -486,65 +486,69 @@
     <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="29.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="49.1640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.6640625" style="2"/>
+    <col min="7" max="7" width="29.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="69.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="49.1640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -552,39 +556,40 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -592,39 +597,40 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -632,39 +638,40 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -672,39 +679,40 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -712,39 +720,40 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -752,39 +761,40 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -792,39 +802,40 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -832,41 +843,42 @@
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="L9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -874,41 +886,42 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="L10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -916,41 +929,42 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="L11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -958,41 +972,42 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="L12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1000,41 +1015,42 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="L13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1042,38 +1058,39 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>32</v>
+      <c r="L14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_validation_tool/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C39588-7BC5-1C44-9F02-12B6EFBD765C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D893B3-033E-2844-985A-27BF6B08E1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>target_db_name</t>
   </si>
   <si>
-    <t>oracle_db</t>
-  </si>
-  <si>
     <t>Identifier,Surname</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>Contact_info.csv</t>
+  </si>
+  <si>
+    <t>postgre_db</t>
   </si>
 </sst>
 </file>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -518,7 +518,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>21</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
@@ -567,7 +567,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
@@ -577,13 +577,13 @@
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>9</v>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -608,7 +608,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>7</v>
@@ -618,13 +618,13 @@
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>9</v>
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -649,7 +649,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>7</v>
@@ -659,13 +659,13 @@
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>9</v>
@@ -679,7 +679,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -690,7 +690,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>7</v>
@@ -700,13 +700,13 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -731,7 +731,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>7</v>
@@ -741,13 +741,13 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>9</v>
@@ -761,7 +761,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
@@ -772,7 +772,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>7</v>
@@ -782,13 +782,13 @@
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>9</v>
@@ -802,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
@@ -813,7 +813,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>7</v>
@@ -823,13 +823,13 @@
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>9</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
@@ -860,19 +860,19 @@
         <v>19</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>9</v>
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
@@ -903,19 +903,19 @@
         <v>19</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>9</v>
@@ -929,7 +929,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>7</v>
@@ -946,19 +946,19 @@
         <v>19</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>9</v>
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
@@ -989,19 +989,19 @@
         <v>19</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>9</v>
@@ -1015,7 +1015,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>7</v>
@@ -1032,19 +1032,19 @@
         <v>19</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>9</v>
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>7</v>
@@ -1075,19 +1075,19 @@
         <v>19</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>9</v>

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_validation_tool/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D893B3-033E-2844-985A-27BF6B08E1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9C4A52-E022-6348-AB79-DC7D835BFC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
     <t>Contact_info.csv</t>
   </si>
   <si>
-    <t>postgre_db</t>
+    <t>oracle_db</t>
   </si>
 </sst>
 </file>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -498,7 +498,7 @@
     <col min="17" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -548,7 +548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -630,7 +630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -671,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -711,8 +711,9 @@
       <c r="P5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -753,7 +754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -794,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -835,7 +836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -878,7 +879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -921,7 +922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -964,7 +965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1007,7 +1008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1094,6 +1095,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{703DDE81-D9C0-DC4D-BC27-344A03B57562}">
+      <formula1>"count_validation,duplicate,Null_value_check,Uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_validation_tool/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9C4A52-E022-6348-AB79-DC7D835BFC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB4A016-0235-1E4D-BC31-281DC4FE5487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="34">
   <si>
     <t>count_validation</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>oracle_db</t>
+  </si>
+  <si>
+    <t>Contact_info_t.csv</t>
   </si>
 </sst>
 </file>
@@ -474,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,7 +570,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
@@ -577,7 +580,7 @@
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>27</v>
@@ -608,7 +611,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>7</v>
@@ -618,7 +621,7 @@
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>27</v>
@@ -649,7 +652,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>7</v>
@@ -659,7 +662,7 @@
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>27</v>
@@ -690,7 +693,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>7</v>
@@ -700,7 +703,7 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>27</v>
@@ -732,7 +735,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>7</v>
@@ -742,7 +745,7 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>27</v>
@@ -773,7 +776,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>7</v>
@@ -783,7 +786,7 @@
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>27</v>
@@ -814,7 +817,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>7</v>
@@ -824,7 +827,7 @@
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>27</v>
@@ -867,7 +870,7 @@
         <v>30</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>27</v>
@@ -910,7 +913,7 @@
         <v>30</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>27</v>
@@ -953,7 +956,7 @@
         <v>30</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>27</v>
@@ -996,7 +999,7 @@
         <v>30</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>27</v>
@@ -1039,7 +1042,7 @@
         <v>30</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>27</v>
@@ -1082,7 +1085,7 @@
         <v>30</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>27</v>

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_validation_tool/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB4A016-0235-1E4D-BC31-281DC4FE5487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF7CC49-2E25-7046-A732-D5992DE5B6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="35">
   <si>
     <t>count_validation</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Contact_info_t.csv</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -477,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -922,7 +925,7 @@
         <v>28</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -965,7 +968,7 @@
         <v>28</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -1051,7 +1054,7 @@
         <v>28</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -1094,7 +1097,7 @@
         <v>28</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_validation_tool/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF7CC49-2E25-7046-A732-D5992DE5B6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6478D506-D946-6A41-B793-EAE38F2E5B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -633,7 +633,7 @@
         <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -674,7 +674,7 @@
         <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -715,7 +715,7 @@
         <v>28</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
@@ -757,7 +757,7 @@
         <v>28</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -798,7 +798,7 @@
         <v>28</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -839,7 +839,7 @@
         <v>28</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -882,7 +882,7 @@
         <v>28</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_validation_tool/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6478D506-D946-6A41-B793-EAE38F2E5B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E248D7D-97D1-D748-AED1-25524C4569BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1011,7 +1011,7 @@
         <v>28</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
